--- a/data/trans_camb/P16A98-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A98-Habitat-trans_camb.xlsx
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,49</t>
+          <t>1,26; 11,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,58</t>
+          <t>0,0; 20,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,99</t>
+          <t>0,0; 12,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,67</t>
+          <t>0,0; 7,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 9,87</t>
+          <t>0,89; 9,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -901,42 +901,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 5,35</t>
+          <t>0,89; 5,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 0,0</t>
+          <t>-1,84; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,0</t>
+          <t>-1,61; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 9,12</t>
+          <t>1,15; 8,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,33</t>
+          <t>-1,69; 1,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 0,0</t>
+          <t>-3,35; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,79</t>
+          <t>1,63; 5,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 0,35</t>
+          <t>-1,33; 0,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,29; —</t>
+          <t>-2,37; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,16; —</t>
+          <t>-23,91; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>81,22; 2410,3</t>
+          <t>76,17; 2427,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,26</t>
+          <t>1,4; 4,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,95</t>
+          <t>0,21; 1,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,02</t>
+          <t>3,06; 9,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 1,74</t>
+          <t>-0,77; 1,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 0,0</t>
+          <t>-1,89; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 5,2</t>
+          <t>2,41; 5,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 1,33</t>
+          <t>0,01; 1,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 0,0</t>
+          <t>-0,78; 0,0</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>213,69; —</t>
+          <t>128,72; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>260,87; —</t>
+          <t>346,56; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-79,54; —</t>
+          <t>-59,26; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,74</t>
+          <t>0,78; 3,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,27; 9,4</t>
+          <t>3,26; 9,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,7</t>
+          <t>0,33; 2,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,45</t>
+          <t>2,35; 5,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,42</t>
+          <t>0,15; 1,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1549,27 +1549,27 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,4</t>
+          <t>0,59; 3,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,46</t>
+          <t>0,14; 2,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,0</t>
+          <t>-0,93; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,93; 8,41</t>
+          <t>2,94; 8,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,4</t>
+          <t>0,87; 4,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,84; 4,53</t>
+          <t>1,86; 4,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,53</t>
+          <t>0,69; 2,71</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,0</t>
+          <t>-0,42; 0,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,86</t>
+          <t>1,45; 2,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,14</t>
+          <t>0,25; 1,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,38; -0,04</t>
+          <t>-0,41; -0,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,94</t>
+          <t>4,04; 7,07</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,94</t>
+          <t>0,27; 1,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,75; -0,08</t>
+          <t>-0,72; -0,08</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,09</t>
+          <t>2,67; 4,15</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,23</t>
+          <t>0,39; 1,19</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,45; -0,09</t>
+          <t>-0,42; -0,09</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>418,65; 5687,41</t>
+          <t>379,48; 5390,76</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>29,2; 2078,97</t>
+          <t>41,17; 2252,91</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>601,33; 7517,05</t>
+          <t>612,08; 7731,54</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>13,89; 1678,76</t>
+          <t>6,13; 1557,68</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>697,19; 4123,69</t>
+          <t>739,6; 3784,01</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>90,15; 1243,53</t>
+          <t>91,88; 1041,09</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_camb/P16A98-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A98-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 11,55</t>
+          <t>1,28; 12,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,23</t>
+          <t>0,0; 18,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,31</t>
+          <t>0,0; 14,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,39</t>
+          <t>0,0; 7,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 9,17</t>
+          <t>1,08; 9,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,32</t>
+          <t>0,73; 5,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 0,0</t>
+          <t>-1,68; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 8,89</t>
+          <t>1,08; 9,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 1,65</t>
+          <t>-1,73; 1,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 0,0</t>
+          <t>-2,55; 0,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,63; 5,57</t>
+          <t>1,68; 5,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,3</t>
+          <t>-1,3; 0,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; -0,16</t>
+          <t>-1,61; -0,16</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,37; —</t>
+          <t>18,73; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-23,91; —</t>
+          <t>-17,01; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,17; 2427,09</t>
+          <t>94,03; 2111,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,02</t>
+          <t>1,25; 4,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,86</t>
+          <t>0,21; 1,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,27 +1132,27 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,06; 9,15</t>
+          <t>3,27; 9,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 1,9</t>
+          <t>-0,82; 1,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,0</t>
+          <t>-2,17; 0,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,14</t>
+          <t>2,42; 5,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 1,48</t>
+          <t>0,03; 1,39</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>128,72; —</t>
+          <t>168,17; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>346,56; —</t>
+          <t>350,02; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,26; —</t>
+          <t>-49,55; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,71</t>
+          <t>1,01; 3,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,3</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,26; 9,39</t>
+          <t>3,4; 9,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 2,72</t>
+          <t>0,33; 2,71</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,27</t>
+          <t>2,25; 5,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,43</t>
+          <t>0,15; 1,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1549,27 +1549,27 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,51</t>
+          <t>0,45; 3,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,14; 2,27</t>
+          <t>0,1; 2,43</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,0</t>
+          <t>-0,9; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,34</t>
+          <t>3,0; 8,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,87; 4,35</t>
+          <t>0,86; 4,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,66</t>
+          <t>1,87; 4,58</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,71</t>
+          <t>0,66; 2,74</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 0,0</t>
+          <t>-0,45; 0,0</t>
         </is>
       </c>
     </row>
@@ -1765,42 +1765,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,89</t>
+          <t>1,43; 2,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,09</t>
+          <t>0,24; 1,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,41; -0,04</t>
+          <t>-0,37; -0,04</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,07</t>
+          <t>3,97; 7,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,78</t>
+          <t>0,32; 1,84</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; -0,08</t>
+          <t>-0,74; -0,08</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,15</t>
+          <t>2,68; 4,17</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,19</t>
+          <t>0,39; 1,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>379,48; 5390,76</t>
+          <t>418,73; 5835,94</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>41,17; 2252,91</t>
+          <t>41,36; 2267,69</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>612,08; 7731,54</t>
+          <t>650,29; 7106,9</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>6,13; 1557,68</t>
+          <t>34,02; 1605,37</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>739,6; 3784,01</t>
+          <t>730,43; 4045,59</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>91,88; 1041,09</t>
+          <t>77,51; 1083,09</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
